--- a/Datafinalgrupo3.xlsx
+++ b/Datafinalgrupo3.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10\Desktop\Avance 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10\Desktop\Entrega final Esta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Datafinalgrupo3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datafinalgrupo3!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="222">
   <si>
     <t>Provincia</t>
   </si>
@@ -36,7 +39,7 @@
     <t>Porcentaje_no_sabe_leer_ni_escribir</t>
   </si>
   <si>
-    <t>Porcentaje_No_tiene_acceso_a_agua</t>
+    <t>Porcentaje_Combustible_contaminante</t>
   </si>
   <si>
     <t xml:space="preserve"> Abancay</t>
@@ -166,12 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Calca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Callao</t>
-  </si>
-  <si>
-    <t>Provincia Constitucional del Callao</t>
   </si>
   <si>
     <t xml:space="preserve"> Camaná</t>
@@ -697,7 +694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,12 +828,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1020,7 +1011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1135,17 +1126,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1191,12 +1171,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1518,20 +1494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,7 +1550,7 @@
         <v>13.8500405167072</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>27.5680997702658</v>
       </c>
       <c r="G2">
         <v>33.75</v>
@@ -1597,7 +1573,7 @@
         <v>22.977524987575201</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>70.236138742323305</v>
       </c>
       <c r="G3">
         <v>42.46</v>
@@ -1620,7 +1596,7 @@
         <v>21.6485919985419</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>60.9295774647887</v>
       </c>
       <c r="G4">
         <v>51.53</v>
@@ -1643,7 +1619,7 @@
         <v>12.0715350223547</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>75.217613927291396</v>
       </c>
       <c r="G5">
         <v>26.72</v>
@@ -1666,7 +1642,7 @@
         <v>17.550303136806999</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>51.250880902043697</v>
       </c>
       <c r="G6">
         <v>17.13</v>
@@ -1689,7 +1665,7 @@
         <v>20.3666200388333</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>50.0815660685155</v>
       </c>
       <c r="G7">
         <v>17.62</v>
@@ -1712,7 +1688,7 @@
         <v>20.695428012681901</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>60.822047992397202</v>
       </c>
       <c r="G8">
         <v>35.74</v>
@@ -1735,7 +1711,7 @@
         <v>22.543190728533901</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>70.8658070001417</v>
       </c>
       <c r="G9">
         <v>38.03</v>
@@ -1758,7 +1734,7 @@
         <v>17.811714382199501</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>53.381511592893702</v>
       </c>
       <c r="G10">
         <v>43.73</v>
@@ -1781,7 +1757,7 @@
         <v>18.911439114391101</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>62.954714179658502</v>
       </c>
       <c r="G11">
         <v>44.44</v>
@@ -1804,7 +1780,7 @@
         <v>20.7227423972762</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>79.660581126253504</v>
       </c>
       <c r="G12">
         <v>25.9</v>
@@ -1827,7 +1803,7 @@
         <v>7.7640717622809099</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>3.3784036621721101</v>
       </c>
       <c r="G13">
         <v>20.71</v>
@@ -1850,7 +1826,7 @@
         <v>9.8397400994591493</v>
       </c>
       <c r="F14">
-        <v>22</v>
+        <v>10.4798226742291</v>
       </c>
       <c r="G14">
         <v>9.69</v>
@@ -1873,7 +1849,7 @@
         <v>24.652284984388299</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>66.006031882809097</v>
       </c>
       <c r="G15">
         <v>24.28</v>
@@ -1896,7 +1872,7 @@
         <v>25.9319395017794</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>67.958569996658895</v>
       </c>
       <c r="G16">
         <v>12.05</v>
@@ -1919,7 +1895,7 @@
         <v>22.097404969132199</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>72.297815254886899</v>
       </c>
       <c r="G17">
         <v>23.56</v>
@@ -1942,7 +1918,7 @@
         <v>20.3891418263036</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>51.418645049218298</v>
       </c>
       <c r="G18">
         <v>41.26</v>
@@ -1965,7 +1941,7 @@
         <v>17.634821267419699</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>61.226969022069198</v>
       </c>
       <c r="G19">
         <v>33.950000000000003</v>
@@ -1988,7 +1964,7 @@
         <v>16.598381276864899</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>49.438713592233</v>
       </c>
       <c r="G20">
         <v>20.54</v>
@@ -2011,7 +1987,7 @@
         <v>10.115649032859499</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>6.6318071674531298</v>
       </c>
       <c r="G21">
         <v>14.23</v>
@@ -2034,7 +2010,7 @@
         <v>15.6754978422</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>48.413192283758598</v>
       </c>
       <c r="G22">
         <v>18.760000000000002</v>
@@ -2057,7 +2033,7 @@
         <v>17.477597570910198</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>80.336092299974894</v>
       </c>
       <c r="G23">
         <v>11.01</v>
@@ -2080,7 +2056,7 @@
         <v>12.7219194937599</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>65.115619236771195</v>
       </c>
       <c r="G24">
         <v>20.69</v>
@@ -2103,7 +2079,7 @@
         <v>14.1579120157584</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>38.652156811328197</v>
       </c>
       <c r="G25">
         <v>11.85</v>
@@ -2126,7 +2102,7 @@
         <v>20.742868406972502</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>67.234329148025196</v>
       </c>
       <c r="G26">
         <v>4.9400000000000004</v>
@@ -2149,7 +2125,7 @@
         <v>15.557600104454201</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>40.185120317591696</v>
       </c>
       <c r="G27">
         <v>5.85</v>
@@ -2172,7 +2148,7 @@
         <v>13.763509218054701</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>71.923427529626295</v>
       </c>
       <c r="G28">
         <v>13.26</v>
@@ -2195,7 +2171,7 @@
         <v>20.282122252976301</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>54.718182783144002</v>
       </c>
       <c r="G29">
         <v>39.090000000000003</v>
@@ -2203,7 +2179,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -2218,7 +2194,7 @@
         <v>9.4718023152901196</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>5.9775081712924498</v>
       </c>
       <c r="G30">
         <v>19.829999999999998</v>
@@ -2226,7 +2202,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -2241,7 +2217,7 @@
         <v>20.718285383278602</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>79.0861324826421</v>
       </c>
       <c r="G31">
         <v>55.63</v>
@@ -2249,7 +2225,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -2264,7 +2240,7 @@
         <v>16.022619138766402</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>38.242737119141601</v>
       </c>
       <c r="G32">
         <v>51.66</v>
@@ -2272,10 +2248,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>40.5276958374304</v>
@@ -2287,7 +2263,7 @@
         <v>13.442678390260401</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>71.877454831107599</v>
       </c>
       <c r="G33">
         <v>41.31</v>
@@ -2295,10 +2271,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>12.3640902670565</v>
@@ -2310,7 +2286,7 @@
         <v>22.328823854224201</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>63.071580165927102</v>
       </c>
       <c r="G34">
         <v>56.09</v>
@@ -2318,7 +2294,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -2333,7 +2309,7 @@
         <v>9.8081795150199191</v>
       </c>
       <c r="F35">
-        <v>19</v>
+        <v>31.40625</v>
       </c>
       <c r="G35">
         <v>17.489999999999998</v>
@@ -2341,7 +2317,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -2356,7 +2332,7 @@
         <v>8.9139091517778404</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>7.5373031330031104</v>
       </c>
       <c r="G36">
         <v>12.05</v>
@@ -2364,7 +2340,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -2379,7 +2355,7 @@
         <v>16.401812862142201</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>64.413280594510397</v>
       </c>
       <c r="G37">
         <v>33.96</v>
@@ -2387,7 +2363,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2402,7 +2378,7 @@
         <v>9.5068360618173493</v>
       </c>
       <c r="F38">
-        <v>46</v>
+        <v>8.0142398193974103</v>
       </c>
       <c r="G38">
         <v>10.17</v>
@@ -2410,7 +2386,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -2425,7 +2401,7 @@
         <v>23.747965589397801</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>72.626534890685804</v>
       </c>
       <c r="G39">
         <v>20.5</v>
@@ -2433,7 +2409,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -2448,7 +2424,7 @@
         <v>27.009684510724298</v>
       </c>
       <c r="F40">
-        <v>22</v>
+        <v>83.535890619065697</v>
       </c>
       <c r="G40">
         <v>18.18</v>
@@ -2456,7 +2432,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -2471,7 +2447,7 @@
         <v>13.8705334023822</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>31.1073253833049</v>
       </c>
       <c r="G41">
         <v>9.2100000000000009</v>
@@ -2479,7 +2455,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2494,7 +2470,7 @@
         <v>12.429132141299601</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>23.941647597254001</v>
       </c>
       <c r="G42">
         <v>24.37</v>
@@ -2502,7 +2478,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -2517,7 +2493,7 @@
         <v>15.094197437829701</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>68.016594231528998</v>
       </c>
       <c r="G43">
         <v>24.76</v>
@@ -2525,7 +2501,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2540,7 +2516,7 @@
         <v>12.078880499933099</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>17.622549019607799</v>
       </c>
       <c r="G44">
         <v>34.01</v>
@@ -2548,7 +2524,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -2563,7 +2539,7 @@
         <v>20.373826791808899</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>73.079357043412202</v>
       </c>
       <c r="G45">
         <v>8.01</v>
@@ -2571,7 +2547,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2586,7 +2562,7 @@
         <v>11.498079869847301</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>27.870724988241601</v>
       </c>
       <c r="G46">
         <v>15.64</v>
@@ -2594,10 +2570,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>45.910924225521299</v>
@@ -2609,7 +2585,7 @@
         <v>12.707232393089701</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>35.8027866093136</v>
       </c>
       <c r="G47">
         <v>12.5</v>
@@ -2617,7 +2593,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -2632,7 +2608,7 @@
         <v>11.3961486477445</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>19.036770401421599</v>
       </c>
       <c r="G48">
         <v>8.36</v>
@@ -2640,10 +2616,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>60.284490574295802</v>
@@ -2655,7 +2631,7 @@
         <v>9.0074816498965493</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>6.08250971136352</v>
       </c>
       <c r="G49">
         <v>9.2899999999999991</v>
@@ -2663,10 +2639,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>74.430926129855393</v>
@@ -2678,7 +2654,7 @@
         <v>8.6835574861731999</v>
       </c>
       <c r="F50">
-        <v>44</v>
+        <v>7.51579479403589</v>
       </c>
       <c r="G50">
         <v>17.73</v>
@@ -2686,7 +2662,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2701,7 +2677,7 @@
         <v>21.694582202676099</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>76.747753670830605</v>
       </c>
       <c r="G51">
         <v>44.45</v>
@@ -2709,7 +2685,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
@@ -2724,7 +2700,7 @@
         <v>21.835626703497699</v>
       </c>
       <c r="F52">
-        <v>27</v>
+        <v>68.019413936107199</v>
       </c>
       <c r="G52">
         <v>9.67</v>
@@ -2732,7 +2708,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
@@ -2747,7 +2723,7 @@
         <v>14.0094532298535</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>61.2240401035641</v>
       </c>
       <c r="G53">
         <v>32.880000000000003</v>
@@ -2755,7 +2731,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2770,7 +2746,7 @@
         <v>22.0642700666656</v>
       </c>
       <c r="F54">
-        <v>25</v>
+        <v>67.9094919595845</v>
       </c>
       <c r="G54">
         <v>31.65</v>
@@ -2778,10 +2754,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>54.546312372612697</v>
@@ -2793,7 +2769,7 @@
         <v>11.4097021141565</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>32.751269035532999</v>
       </c>
       <c r="G55">
         <v>25.11</v>
@@ -2801,7 +2777,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -2816,7 +2792,7 @@
         <v>23.387698193962599</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>78.013754045307493</v>
       </c>
       <c r="G56">
         <v>38.42</v>
@@ -2824,10 +2800,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>44.043100501879799</v>
@@ -2839,7 +2815,7 @@
         <v>13.356702984367599</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>51.414309484192998</v>
       </c>
       <c r="G57">
         <v>15.77</v>
@@ -2847,7 +2823,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -2862,7 +2838,7 @@
         <v>12.780007769001701</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>35.405907870274703</v>
       </c>
       <c r="G58">
         <v>25.96</v>
@@ -2870,7 +2846,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
@@ -2885,7 +2861,7 @@
         <v>22.271172385197499</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>84.225611628621095</v>
       </c>
       <c r="G59">
         <v>27.56</v>
@@ -2893,10 +2869,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>41.102721185354</v>
@@ -2908,7 +2884,7 @@
         <v>10.482370102107501</v>
       </c>
       <c r="F60">
-        <v>87</v>
+        <v>14.172945819878001</v>
       </c>
       <c r="G60">
         <v>5.91</v>
@@ -2916,7 +2892,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
@@ -2931,7 +2907,7 @@
         <v>13.3361140603671</v>
       </c>
       <c r="F61">
-        <v>24</v>
+        <v>65.154407636159505</v>
       </c>
       <c r="G61">
         <v>7.09</v>
@@ -2939,7 +2915,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
@@ -2954,7 +2930,7 @@
         <v>11.3678373382625</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>19.170814058012301</v>
       </c>
       <c r="G62">
         <v>10.75</v>
@@ -2962,7 +2938,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -2977,7 +2953,7 @@
         <v>16.364902506963801</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>74.5136186770428</v>
       </c>
       <c r="G63">
         <v>18.510000000000002</v>
@@ -2985,7 +2961,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -3000,7 +2976,7 @@
         <v>22.7981220657277</v>
       </c>
       <c r="F64">
-        <v>25</v>
+        <v>66.114988368228595</v>
       </c>
       <c r="G64">
         <v>37.090000000000003</v>
@@ -3008,7 +2984,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -3023,7 +2999,7 @@
         <v>8.3776477159123495</v>
       </c>
       <c r="F65">
-        <v>14</v>
+        <v>5.2185125414602096</v>
       </c>
       <c r="G65">
         <v>28.65</v>
@@ -3031,7 +3007,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3046,7 +3022,7 @@
         <v>20.748630553864899</v>
       </c>
       <c r="F66">
-        <v>19</v>
+        <v>68.297819280113103</v>
       </c>
       <c r="G66">
         <v>8.15</v>
@@ -3054,10 +3030,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67">
         <v>26.000458926112898</v>
@@ -3069,7 +3045,7 @@
         <v>13.6132133847399</v>
       </c>
       <c r="F67">
-        <v>22</v>
+        <v>71.347387717690196</v>
       </c>
       <c r="G67">
         <v>29.13</v>
@@ -3077,7 +3053,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -3092,7 +3068,7 @@
         <v>24.8608912010857</v>
       </c>
       <c r="F68">
-        <v>13</v>
+        <v>77.672863184813593</v>
       </c>
       <c r="G68">
         <v>14.07</v>
@@ -3100,7 +3076,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -3115,7 +3091,7 @@
         <v>18.6542008522547</v>
       </c>
       <c r="F69">
-        <v>13</v>
+        <v>76.967722227878994</v>
       </c>
       <c r="G69">
         <v>27.35</v>
@@ -3123,7 +3099,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -3138,7 +3114,7 @@
         <v>17.037697608431301</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>46.659164985255302</v>
       </c>
       <c r="G70">
         <v>33.33</v>
@@ -3146,7 +3122,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
         <v>40</v>
@@ -3161,7 +3137,7 @@
         <v>18.7420178799489</v>
       </c>
       <c r="F71">
-        <v>19</v>
+        <v>59.8707592891761</v>
       </c>
       <c r="G71">
         <v>9.98</v>
@@ -3169,7 +3145,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -3184,7 +3160,7 @@
         <v>14.9243906452852</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>43.889998948364699</v>
       </c>
       <c r="G72">
         <v>34.5</v>
@@ -3192,10 +3168,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>33.096545706513403</v>
@@ -3207,7 +3183,7 @@
         <v>16.777345240821301</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>34.0148029605921</v>
       </c>
       <c r="G73">
         <v>10.37</v>
@@ -3215,10 +3191,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>43.188698284560999</v>
@@ -3230,7 +3206,7 @@
         <v>11.6550279329609</v>
       </c>
       <c r="F74">
-        <v>16</v>
+        <v>67.8491171749599</v>
       </c>
       <c r="G74">
         <v>37.770000000000003</v>
@@ -3238,7 +3214,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -3253,7 +3229,7 @@
         <v>15.547273440564901</v>
       </c>
       <c r="F75">
-        <v>38</v>
+        <v>56.4165272235809</v>
       </c>
       <c r="G75">
         <v>5.35</v>
@@ -3261,7 +3237,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -3276,7 +3252,7 @@
         <v>21.106840134043001</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>71.120571271628705</v>
       </c>
       <c r="G76">
         <v>49.41</v>
@@ -3284,7 +3260,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -3299,7 +3275,7 @@
         <v>22.283409105461999</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>88.904109589041099</v>
       </c>
       <c r="G77">
         <v>36.14</v>
@@ -3307,7 +3283,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>45</v>
@@ -3322,7 +3298,7 @@
         <v>25.5104095356985</v>
       </c>
       <c r="F78">
-        <v>22</v>
+        <v>76.461245235069896</v>
       </c>
       <c r="G78">
         <v>7.36</v>
@@ -3330,7 +3306,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
@@ -3345,7 +3321,7 @@
         <v>14.198954489544899</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>40.655277919428897</v>
       </c>
       <c r="G79">
         <v>13.9</v>
@@ -3353,7 +3329,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
@@ -3368,7 +3344,7 @@
         <v>17.2113156932081</v>
       </c>
       <c r="F80">
-        <v>14</v>
+        <v>82.0423689906211</v>
       </c>
       <c r="G80">
         <v>26.83</v>
@@ -3376,10 +3352,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C81">
         <v>38.794942486374602</v>
@@ -3391,7 +3367,7 @@
         <v>13.9505812430292</v>
       </c>
       <c r="F81">
-        <v>13</v>
+        <v>28.2408488338911</v>
       </c>
       <c r="G81">
         <v>40.93</v>
@@ -3399,10 +3375,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C82">
         <v>18.016410988226902</v>
@@ -3414,7 +3390,7 @@
         <v>19.285007422068301</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>51.000984574991797</v>
       </c>
       <c r="G82">
         <v>52.45</v>
@@ -3422,7 +3398,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
         <v>31</v>
@@ -3437,7 +3413,7 @@
         <v>23.8512388833405</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>77.139348907499496</v>
       </c>
       <c r="G83">
         <v>10.33</v>
@@ -3445,7 +3421,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
         <v>34</v>
@@ -3460,7 +3436,7 @@
         <v>19.224602302412301</v>
       </c>
       <c r="F84">
-        <v>18</v>
+        <v>50.904524752053803</v>
       </c>
       <c r="G84">
         <v>30.33</v>
@@ -3468,7 +3444,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -3483,7 +3459,7 @@
         <v>17.368512697379899</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>47.554347826087003</v>
       </c>
       <c r="G85">
         <v>41.24</v>
@@ -3491,10 +3467,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C86">
         <v>64.841325843314394</v>
@@ -3506,7 +3482,7 @@
         <v>9.4582544503485106</v>
       </c>
       <c r="F86">
-        <v>17</v>
+        <v>12.8544168515309</v>
       </c>
       <c r="G86">
         <v>20.73</v>
@@ -3514,10 +3490,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C87">
         <v>21.7803411351798</v>
@@ -3529,7 +3505,7 @@
         <v>18.1743820757513</v>
       </c>
       <c r="F87">
-        <v>13</v>
+        <v>46.208908772612297</v>
       </c>
       <c r="G87">
         <v>39.76</v>
@@ -3537,7 +3513,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
@@ -3552,7 +3528,7 @@
         <v>15.2706827193736</v>
       </c>
       <c r="F88">
-        <v>16</v>
+        <v>30.465608868257199</v>
       </c>
       <c r="G88">
         <v>19.170000000000002</v>
@@ -3560,7 +3536,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
@@ -3575,7 +3551,7 @@
         <v>9.5332138494731709</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>8.0695028444224608</v>
       </c>
       <c r="G89">
         <v>12.58</v>
@@ -3583,7 +3559,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
@@ -3598,7 +3574,7 @@
         <v>12.883388275210599</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>32.343584305408299</v>
       </c>
       <c r="G90">
         <v>18.600000000000001</v>
@@ -3606,7 +3582,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
@@ -3621,7 +3597,7 @@
         <v>19.885773624091399</v>
       </c>
       <c r="F91">
-        <v>19</v>
+        <v>77.763337046664205</v>
       </c>
       <c r="G91">
         <v>20.49</v>
@@ -3629,7 +3605,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
@@ -3644,7 +3620,7 @@
         <v>9.5293955285674894</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>19.5633282641755</v>
       </c>
       <c r="G92">
         <v>15.44</v>
@@ -3652,7 +3628,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
         <v>38</v>
@@ -3667,7 +3643,7 @@
         <v>8.7010554374842393</v>
       </c>
       <c r="F93">
-        <v>14</v>
+        <v>27.9858865039694</v>
       </c>
       <c r="G93">
         <v>15.44</v>
@@ -3675,7 +3651,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
@@ -3690,7 +3666,7 @@
         <v>8.9795993859470702</v>
       </c>
       <c r="F94">
-        <v>12</v>
+        <v>8.8999358563181499</v>
       </c>
       <c r="G94">
         <v>14.82</v>
@@ -3698,7 +3674,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
@@ -3713,7 +3689,7 @@
         <v>20.238732249434001</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>61.355585831062697</v>
       </c>
       <c r="G95">
         <v>14.97</v>
@@ -3721,7 +3697,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
@@ -3736,7 +3712,7 @@
         <v>16.361097620203999</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>71.863411619283099</v>
       </c>
       <c r="G96">
         <v>20.85</v>
@@ -3744,10 +3720,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C97">
         <v>71.664465836906999</v>
@@ -3759,7 +3735,7 @@
         <v>7.7607396610424599</v>
       </c>
       <c r="F97">
-        <v>29</v>
+        <v>5.9942346823422996</v>
       </c>
       <c r="G97">
         <v>12.81</v>
@@ -3767,10 +3743,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>69.063215850178807</v>
@@ -3782,7 +3758,7 @@
         <v>7.45467791196167</v>
       </c>
       <c r="F98">
-        <v>14</v>
+        <v>1.13942767678525</v>
       </c>
       <c r="G98">
         <v>26.59</v>
@@ -3790,7 +3766,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
         <v>24</v>
@@ -3805,7 +3781,7 @@
         <v>8.6301644604893806</v>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>9.6339950372208403</v>
       </c>
       <c r="G99">
         <v>32.65</v>
@@ -3813,7 +3789,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
         <v>45</v>
@@ -3828,7 +3804,7 @@
         <v>15.44807155472</v>
       </c>
       <c r="F100">
-        <v>12</v>
+        <v>35.834725513811698</v>
       </c>
       <c r="G100">
         <v>9.99</v>
@@ -3836,10 +3812,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C101">
         <v>46.406908728395202</v>
@@ -3851,7 +3827,7 @@
         <v>11.499634972182401</v>
       </c>
       <c r="F101">
-        <v>14</v>
+        <v>40.083406848985497</v>
       </c>
       <c r="G101">
         <v>19.82</v>
@@ -3859,10 +3835,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102">
         <v>78.511092546180294</v>
@@ -3874,7 +3850,7 @@
         <v>7.6796754250386403</v>
       </c>
       <c r="F102">
-        <v>19</v>
+        <v>20.4329288291243</v>
       </c>
       <c r="G102">
         <v>39.99</v>
@@ -3882,7 +3858,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -3897,7 +3873,7 @@
         <v>17.623106781337999</v>
       </c>
       <c r="F103">
-        <v>37</v>
+        <v>60.551277759178703</v>
       </c>
       <c r="G103">
         <v>10.75</v>
@@ -3905,10 +3881,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C104">
         <v>42.234037954437397</v>
@@ -3920,7 +3896,7 @@
         <v>15.0186652098698</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>28.0622423194574</v>
       </c>
       <c r="G104">
         <v>16.399999999999999</v>
@@ -3928,7 +3904,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -3943,7 +3919,7 @@
         <v>15.077330598991701</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>48.593809888846302</v>
       </c>
       <c r="G105">
         <v>40.590000000000003</v>
@@ -3951,10 +3927,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C106">
         <v>15.9795054703976</v>
@@ -3966,7 +3942,7 @@
         <v>20.079418595939199</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>58.947164511598601</v>
       </c>
       <c r="G106">
         <v>37.67</v>
@@ -3974,7 +3950,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
@@ -3989,7 +3965,7 @@
         <v>21.416277354315199</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>58.431644691186698</v>
       </c>
       <c r="G107">
         <v>35.840000000000003</v>
@@ -3997,7 +3973,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
         <v>40</v>
@@ -4012,7 +3988,7 @@
         <v>17.3423716464129</v>
       </c>
       <c r="F108">
-        <v>13</v>
+        <v>48.927946995490899</v>
       </c>
       <c r="G108">
         <v>15.22</v>
@@ -4020,10 +3996,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109">
         <v>40.898823999733501</v>
@@ -4035,7 +4011,7 @@
         <v>13.597374771324599</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>34.326157878212904</v>
       </c>
       <c r="G109">
         <v>8.2200000000000006</v>
@@ -4043,7 +4019,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
         <v>34</v>
@@ -4058,7 +4034,7 @@
         <v>14.734839721343899</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>53.946959816160501</v>
       </c>
       <c r="G110">
         <v>32.61</v>
@@ -4066,7 +4042,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -4081,7 +4057,7 @@
         <v>12.3901190608657</v>
       </c>
       <c r="F111">
-        <v>19</v>
+        <v>86.132177681473493</v>
       </c>
       <c r="G111">
         <v>38.92</v>
@@ -4089,7 +4065,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
@@ -4104,7 +4080,7 @@
         <v>14.0411581085768</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>32.532827545958597</v>
       </c>
       <c r="G112">
         <v>17.850000000000001</v>
@@ -4112,7 +4088,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s">
         <v>38</v>
@@ -4127,7 +4103,7 @@
         <v>6.6035295148438102</v>
       </c>
       <c r="F113">
-        <v>8</v>
+        <v>0.71154936921438305</v>
       </c>
       <c r="G113">
         <v>10.06</v>
@@ -4135,7 +4111,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -4150,7 +4126,7 @@
         <v>21.927769389632299</v>
       </c>
       <c r="F114">
-        <v>18</v>
+        <v>75.884694780300805</v>
       </c>
       <c r="G114">
         <v>12.18</v>
@@ -4158,10 +4134,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C115">
         <v>29.383572319201999</v>
@@ -4173,7 +4149,7 @@
         <v>16.4014588129826</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>55.714446571332097</v>
       </c>
       <c r="G115">
         <v>31.24</v>
@@ -4181,7 +4157,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
@@ -4196,7 +4172,7 @@
         <v>18.189178891217399</v>
       </c>
       <c r="F116">
-        <v>15</v>
+        <v>50.752605171748399</v>
       </c>
       <c r="G116">
         <v>15.23</v>
@@ -4204,7 +4180,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
@@ -4219,7 +4195,7 @@
         <v>20.7928705590856</v>
       </c>
       <c r="F117">
-        <v>15</v>
+        <v>74.867256637168097</v>
       </c>
       <c r="G117">
         <v>44.61</v>
@@ -4227,7 +4203,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
@@ -4242,7 +4218,7 @@
         <v>13.8520862171248</v>
       </c>
       <c r="F118">
-        <v>9</v>
+        <v>33.449876424136498</v>
       </c>
       <c r="G118">
         <v>22.24</v>
@@ -4250,7 +4226,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -4265,7 +4241,7 @@
         <v>28.405436248573501</v>
       </c>
       <c r="F119">
-        <v>17</v>
+        <v>90.770491803278702</v>
       </c>
       <c r="G119">
         <v>17.46</v>
@@ -4273,10 +4249,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C120">
         <v>64.064019496420599</v>
@@ -4288,7 +4264,7 @@
         <v>9.3895220857995394</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>15.5744835085176</v>
       </c>
       <c r="G120">
         <v>25.49</v>
@@ -4296,7 +4272,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -4311,7 +4287,7 @@
         <v>19.120753388487898</v>
       </c>
       <c r="F121">
-        <v>40</v>
+        <v>73.729220716825196</v>
       </c>
       <c r="G121">
         <v>7.27</v>
@@ -4319,7 +4295,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -4334,7 +4310,7 @@
         <v>11.726980510592499</v>
       </c>
       <c r="F122">
-        <v>12</v>
+        <v>32.974279003503902</v>
       </c>
       <c r="G122">
         <v>11.42</v>
@@ -4342,7 +4318,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
         <v>34</v>
@@ -4357,7 +4333,7 @@
         <v>14.498170209452599</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>45.611459584501098</v>
       </c>
       <c r="G123">
         <v>44.47</v>
@@ -4365,7 +4341,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
         <v>34</v>
@@ -4380,7 +4356,7 @@
         <v>19.364417817139898</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>73.494515334676507</v>
       </c>
       <c r="G124">
         <v>31.01</v>
@@ -4388,7 +4364,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
         <v>31</v>
@@ -4403,7 +4379,7 @@
         <v>16.408333605034102</v>
       </c>
       <c r="F125">
-        <v>18</v>
+        <v>44.403965467752997</v>
       </c>
       <c r="G125">
         <v>14.21</v>
@@ -4411,7 +4387,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
         <v>40</v>
@@ -4426,7 +4402,7 @@
         <v>14.2749473720687</v>
       </c>
       <c r="F126">
-        <v>8</v>
+        <v>31.387780165796698</v>
       </c>
       <c r="G126">
         <v>17.920000000000002</v>
@@ -4434,10 +4410,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C127">
         <v>60.829706320401399</v>
@@ -4449,7 +4425,7 @@
         <v>9.0131498843297209</v>
       </c>
       <c r="F127">
-        <v>13</v>
+        <v>9.8298676748582192</v>
       </c>
       <c r="G127">
         <v>15.58</v>
@@ -4457,7 +4433,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
@@ -4472,7 +4448,7 @@
         <v>10.827740492169999</v>
       </c>
       <c r="F128">
-        <v>15</v>
+        <v>73.864982234504495</v>
       </c>
       <c r="G128">
         <v>14.53</v>
@@ -4480,7 +4456,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
         <v>26</v>
@@ -4495,7 +4471,7 @@
         <v>17.991631799163201</v>
       </c>
       <c r="F129">
-        <v>13</v>
+        <v>77.842651321039995</v>
       </c>
       <c r="G129">
         <v>8.39</v>
@@ -4503,10 +4479,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C130">
         <v>36.716588544643898</v>
@@ -4518,7 +4494,7 @@
         <v>15.372278382581699</v>
       </c>
       <c r="F130">
-        <v>11</v>
+        <v>46.080433423629898</v>
       </c>
       <c r="G130">
         <v>10.63</v>
@@ -4526,7 +4502,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
         <v>38</v>
@@ -4541,7 +4517,7 @@
         <v>11.2675223280298</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>39.078686356623301</v>
       </c>
       <c r="G131">
         <v>13.89</v>
@@ -4549,7 +4525,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
         <v>26</v>
@@ -4564,7 +4540,7 @@
         <v>10.839739919849499</v>
       </c>
       <c r="F132">
-        <v>26</v>
+        <v>11.7932599965078</v>
       </c>
       <c r="G132">
         <v>7.04</v>
@@ -4572,7 +4548,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -4587,7 +4563,7 @@
         <v>26.5822784810127</v>
       </c>
       <c r="F133">
-        <v>15</v>
+        <v>64.734299516908195</v>
       </c>
       <c r="G133">
         <v>23.16</v>
@@ -4595,7 +4571,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
         <v>29</v>
@@ -4610,7 +4586,7 @@
         <v>15.686867967526</v>
       </c>
       <c r="F134">
-        <v>21</v>
+        <v>33.377204527507203</v>
       </c>
       <c r="G134">
         <v>28.4</v>
@@ -4618,7 +4594,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
         <v>31</v>
@@ -4633,7 +4609,7 @@
         <v>11.796526136065101</v>
       </c>
       <c r="F135">
-        <v>27</v>
+        <v>19.259541760788601</v>
       </c>
       <c r="G135">
         <v>15.13</v>
@@ -4641,7 +4617,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
         <v>13</v>
@@ -4656,7 +4632,7 @@
         <v>17.9347581552306</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>87.869778504533997</v>
       </c>
       <c r="G136">
         <v>13.1</v>
@@ -4664,10 +4640,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C137">
         <v>45.934099153567097</v>
@@ -4679,7 +4655,7 @@
         <v>10.618556701030901</v>
       </c>
       <c r="F137">
-        <v>42</v>
+        <v>31.509574732653601</v>
       </c>
       <c r="G137">
         <v>12.28</v>
@@ -4687,10 +4663,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C138">
         <v>29.118912469720499</v>
@@ -4702,7 +4678,7 @@
         <v>16.569009186103699</v>
       </c>
       <c r="F138">
-        <v>23</v>
+        <v>40.742580404818099</v>
       </c>
       <c r="G138">
         <v>39.82</v>
@@ -4710,7 +4686,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -4725,7 +4701,7 @@
         <v>24.544414480673399</v>
       </c>
       <c r="F139">
-        <v>14</v>
+        <v>68.887800097991203</v>
       </c>
       <c r="G139">
         <v>41.06</v>
@@ -4733,10 +4709,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C140">
         <v>59.4618542454172</v>
@@ -4748,7 +4724,7 @@
         <v>10.5119033356724</v>
       </c>
       <c r="F140">
-        <v>47</v>
+        <v>21.3961147875942</v>
       </c>
       <c r="G140">
         <v>16.59</v>
@@ -4756,7 +4732,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
         <v>26</v>
@@ -4771,7 +4747,7 @@
         <v>19.743216375906599</v>
       </c>
       <c r="F141">
-        <v>21</v>
+        <v>67.122177811385995</v>
       </c>
       <c r="G141">
         <v>14.39</v>
@@ -4779,10 +4755,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C142">
         <v>29.659694036840499</v>
@@ -4794,7 +4770,7 @@
         <v>14.5082235050648</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>50.850603154964404</v>
       </c>
       <c r="G142">
         <v>44.05</v>
@@ -4802,7 +4778,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -4817,7 +4793,7 @@
         <v>26.4027805561112</v>
       </c>
       <c r="F143">
-        <v>12</v>
+        <v>71.107809146442094</v>
       </c>
       <c r="G143">
         <v>43</v>
@@ -4825,7 +4801,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
         <v>40</v>
@@ -4840,7 +4816,7 @@
         <v>14.7243288634634</v>
       </c>
       <c r="F144">
-        <v>34</v>
+        <v>43.840613600224501</v>
       </c>
       <c r="G144">
         <v>12.96</v>
@@ -4848,10 +4824,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C145">
         <v>65.961497638380294</v>
@@ -4863,7 +4839,7 @@
         <v>9.2639504609105607</v>
       </c>
       <c r="F145">
-        <v>30</v>
+        <v>6.2138273398716599</v>
       </c>
       <c r="G145">
         <v>16.36</v>
@@ -4871,7 +4847,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
         <v>31</v>
@@ -4886,7 +4862,7 @@
         <v>12.0341804842764</v>
       </c>
       <c r="F146">
-        <v>22</v>
+        <v>25.926018060150799</v>
       </c>
       <c r="G146">
         <v>11.2</v>
@@ -4894,7 +4870,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -4909,7 +4885,7 @@
         <v>28.998429074852499</v>
       </c>
       <c r="F147">
-        <v>17</v>
+        <v>84.927897947864693</v>
       </c>
       <c r="G147">
         <v>20.45</v>
@@ -4917,7 +4893,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
@@ -4932,7 +4908,7 @@
         <v>16.257506764337101</v>
       </c>
       <c r="F148">
-        <v>15</v>
+        <v>52.316960148285503</v>
       </c>
       <c r="G148">
         <v>16.670000000000002</v>
@@ -4940,7 +4916,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
         <v>34</v>
@@ -4955,7 +4931,7 @@
         <v>12.2851511481561</v>
       </c>
       <c r="F149">
-        <v>17</v>
+        <v>34.901303092015098</v>
       </c>
       <c r="G149">
         <v>30.67</v>
@@ -4963,7 +4939,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
         <v>29</v>
@@ -4978,7 +4954,7 @@
         <v>26.0885885885886</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>82.686567164179095</v>
       </c>
       <c r="G150">
         <v>9.1</v>
@@ -4986,7 +4962,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
@@ -5001,7 +4977,7 @@
         <v>18.0177679067185</v>
       </c>
       <c r="F151">
-        <v>73</v>
+        <v>74.466824644549803</v>
       </c>
       <c r="G151">
         <v>5.91</v>
@@ -5009,7 +4985,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -5024,7 +5000,7 @@
         <v>21.597307147440901</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>54.268790849673202</v>
       </c>
       <c r="G152">
         <v>37.799999999999997</v>
@@ -5032,7 +5008,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
@@ -5047,7 +5023,7 @@
         <v>15.1237955848274</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>65.188096574957896</v>
       </c>
       <c r="G153">
         <v>26.29</v>
@@ -5055,7 +5031,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
@@ -5070,7 +5046,7 @@
         <v>17.204817496674998</v>
       </c>
       <c r="F154">
-        <v>28</v>
+        <v>77.3871811641596</v>
       </c>
       <c r="G154">
         <v>7.69</v>
@@ -5078,7 +5054,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
         <v>40</v>
@@ -5093,7 +5069,7 @@
         <v>15.936601176562601</v>
       </c>
       <c r="F155">
-        <v>12</v>
+        <v>33.234936092513699</v>
       </c>
       <c r="G155">
         <v>17.420000000000002</v>
@@ -5101,7 +5077,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
         <v>36</v>
@@ -5116,7 +5092,7 @@
         <v>15.2121894573862</v>
       </c>
       <c r="F156">
-        <v>13</v>
+        <v>57.216494845360799</v>
       </c>
       <c r="G156">
         <v>11.59</v>
@@ -5124,7 +5100,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
         <v>34</v>
@@ -5139,7 +5115,7 @@
         <v>13.553652276725201</v>
       </c>
       <c r="F157">
-        <v>18</v>
+        <v>43.678533776660501</v>
       </c>
       <c r="G157">
         <v>21.71</v>
@@ -5147,7 +5123,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
         <v>45</v>
@@ -5162,7 +5138,7 @@
         <v>18.149150111634398</v>
       </c>
       <c r="F158">
-        <v>16</v>
+        <v>62.746113989637301</v>
       </c>
       <c r="G158">
         <v>14.57</v>
@@ -5170,7 +5146,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
         <v>45</v>
@@ -5185,7 +5161,7 @@
         <v>21.903568917018301</v>
       </c>
       <c r="F159">
-        <v>15</v>
+        <v>67.021565170215695</v>
       </c>
       <c r="G159">
         <v>5.4</v>
@@ -5193,7 +5169,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B160" t="s">
         <v>40</v>
@@ -5208,7 +5184,7 @@
         <v>9.6004278985487392</v>
       </c>
       <c r="F160">
-        <v>9</v>
+        <v>14.5742597994166</v>
       </c>
       <c r="G160">
         <v>11.91</v>
@@ -5216,7 +5192,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
         <v>45</v>
@@ -5231,7 +5207,7 @@
         <v>16.9581610866306</v>
       </c>
       <c r="F161">
-        <v>8</v>
+        <v>77.105280376889397</v>
       </c>
       <c r="G161">
         <v>4.51</v>
@@ -5239,7 +5215,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
         <v>45</v>
@@ -5254,7 +5230,7 @@
         <v>20.898281374900101</v>
       </c>
       <c r="F162">
-        <v>14</v>
+        <v>77.976737067646198</v>
       </c>
       <c r="G162">
         <v>3.61</v>
@@ -5262,7 +5238,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
         <v>34</v>
@@ -5277,7 +5253,7 @@
         <v>9.9943196594533195</v>
       </c>
       <c r="F163">
-        <v>11</v>
+        <v>12.0683371801526</v>
       </c>
       <c r="G163">
         <v>25.23</v>
@@ -5285,7 +5261,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
         <v>26</v>
@@ -5300,7 +5276,7 @@
         <v>24.6423723504229</v>
       </c>
       <c r="F164">
-        <v>33</v>
+        <v>66.823132780083</v>
       </c>
       <c r="G164">
         <v>5.19</v>
@@ -5308,7 +5284,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
         <v>34</v>
@@ -5323,7 +5299,7 @@
         <v>15.2239484340137</v>
       </c>
       <c r="F165">
-        <v>22</v>
+        <v>62.411918663176998</v>
       </c>
       <c r="G165">
         <v>30</v>
@@ -5331,7 +5307,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
@@ -5346,7 +5322,7 @@
         <v>9.1925513700691805</v>
       </c>
       <c r="F166">
-        <v>9</v>
+        <v>7.0296996957269497</v>
       </c>
       <c r="G166">
         <v>14.38</v>
@@ -5354,7 +5330,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
         <v>45</v>
@@ -5369,7 +5345,7 @@
         <v>17.706629055007099</v>
       </c>
       <c r="F167">
-        <v>19</v>
+        <v>74.701108299153503</v>
       </c>
       <c r="G167">
         <v>9.7100000000000009</v>
@@ -5377,7 +5353,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
         <v>26</v>
@@ -5392,7 +5368,7 @@
         <v>16.863762898465801</v>
       </c>
       <c r="F168">
-        <v>31</v>
+        <v>81.565816290673993</v>
       </c>
       <c r="G168">
         <v>10.28</v>
@@ -5400,10 +5376,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C169">
         <v>31.990097311076799</v>
@@ -5415,7 +5391,7 @@
         <v>16.661201781200099</v>
       </c>
       <c r="F169">
-        <v>12</v>
+        <v>64.582145595376204</v>
       </c>
       <c r="G169">
         <v>19.100000000000001</v>
@@ -5423,7 +5399,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B170" t="s">
         <v>31</v>
@@ -5438,7 +5414,7 @@
         <v>12.239554925275399</v>
       </c>
       <c r="F170">
-        <v>74</v>
+        <v>24.776436113777599</v>
       </c>
       <c r="G170">
         <v>8.01</v>
@@ -5446,7 +5422,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
@@ -5461,7 +5437,7 @@
         <v>23.3343796594209</v>
       </c>
       <c r="F171">
-        <v>13</v>
+        <v>84.095274683057994</v>
       </c>
       <c r="G171">
         <v>24.15</v>
@@ -5469,10 +5445,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C172">
         <v>22.4563260984648</v>
@@ -5484,7 +5460,7 @@
         <v>18.228879832580699</v>
       </c>
       <c r="F172">
-        <v>13</v>
+        <v>62.752183077386299</v>
       </c>
       <c r="G172">
         <v>36.74</v>
@@ -5492,7 +5468,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
         <v>31</v>
@@ -5507,7 +5483,7 @@
         <v>11.453832369746801</v>
       </c>
       <c r="F173">
-        <v>41</v>
+        <v>23.2690714382876</v>
       </c>
       <c r="G173">
         <v>7.25</v>
@@ -5515,10 +5491,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C174">
         <v>69.227680888357895</v>
@@ -5530,7 +5506,7 @@
         <v>7.9074791545273904</v>
       </c>
       <c r="F174">
-        <v>8</v>
+        <v>7.2540249487831296</v>
       </c>
       <c r="G174">
         <v>35.26</v>
@@ -5538,7 +5514,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B175" t="s">
         <v>31</v>
@@ -5553,7 +5529,7 @@
         <v>8.4162578324352406</v>
       </c>
       <c r="F175">
-        <v>74</v>
+        <v>9.4528973777921692</v>
       </c>
       <c r="G175">
         <v>19.61</v>
@@ -5561,10 +5537,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C176">
         <v>36.002625533311502</v>
@@ -5576,7 +5552,7 @@
         <v>11.263550135501401</v>
       </c>
       <c r="F176">
-        <v>14</v>
+        <v>73.226072607260704</v>
       </c>
       <c r="G176">
         <v>35.81</v>
@@ -5584,10 +5560,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C177">
         <v>47.331175354392201</v>
@@ -5599,7 +5575,7 @@
         <v>11.9429569130175</v>
       </c>
       <c r="F177">
-        <v>12</v>
+        <v>22.340346718032301</v>
       </c>
       <c r="G177">
         <v>8.75</v>
@@ -5607,7 +5583,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -5622,7 +5598,7 @@
         <v>20.824760943545201</v>
       </c>
       <c r="F178">
-        <v>14</v>
+        <v>72.655426765015804</v>
       </c>
       <c r="G178">
         <v>44.19</v>
@@ -5630,7 +5606,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B179" t="s">
         <v>40</v>
@@ -5645,7 +5621,7 @@
         <v>14.0243436827074</v>
       </c>
       <c r="F179">
-        <v>18</v>
+        <v>34.425610019434302</v>
       </c>
       <c r="G179">
         <v>23.97</v>
@@ -5653,7 +5629,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B180" t="s">
         <v>26</v>
@@ -5668,7 +5644,7 @@
         <v>8.6625469589253594</v>
       </c>
       <c r="F180">
-        <v>15</v>
+        <v>5.1318667339644604</v>
       </c>
       <c r="G180">
         <v>8.34</v>
@@ -5676,10 +5652,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C181">
         <v>43.428066235593199</v>
@@ -5691,7 +5667,7 @@
         <v>9.8204433061318905</v>
       </c>
       <c r="F181">
-        <v>31</v>
+        <v>5.95455097824766</v>
       </c>
       <c r="G181">
         <v>10.029999999999999</v>
@@ -5699,7 +5675,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
@@ -5714,7 +5690,7 @@
         <v>15.194234972139601</v>
       </c>
       <c r="F182">
-        <v>36</v>
+        <v>68.147282291057905</v>
       </c>
       <c r="G182">
         <v>9.44</v>
@@ -5722,7 +5698,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -5737,7 +5713,7 @@
         <v>14.8842528416967</v>
       </c>
       <c r="F183">
-        <v>18</v>
+        <v>42.667910447761201</v>
       </c>
       <c r="G183">
         <v>38.31</v>
@@ -5745,7 +5721,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B184" t="s">
         <v>36</v>
@@ -5760,7 +5736,7 @@
         <v>16.850670511326602</v>
       </c>
       <c r="F184">
-        <v>44</v>
+        <v>46.693261242252397</v>
       </c>
       <c r="G184">
         <v>13.43</v>
@@ -5768,10 +5744,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B185" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C185">
         <v>24.208066040081601</v>
@@ -5783,7 +5759,7 @@
         <v>21.760745727602298</v>
       </c>
       <c r="F185">
-        <v>14</v>
+        <v>63.905489923558001</v>
       </c>
       <c r="G185">
         <v>49.5</v>
@@ -5791,10 +5767,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C186">
         <v>14.779669058774701</v>
@@ -5806,7 +5782,7 @@
         <v>23.760535448686198</v>
       </c>
       <c r="F186">
-        <v>19</v>
+        <v>74.6114837232128</v>
       </c>
       <c r="G186">
         <v>44.7</v>
@@ -5814,7 +5790,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B187" t="s">
         <v>26</v>
@@ -5829,7 +5805,7 @@
         <v>14.531429167101001</v>
       </c>
       <c r="F187">
-        <v>36</v>
+        <v>25.674526824466401</v>
       </c>
       <c r="G187">
         <v>11.49</v>
@@ -5837,7 +5813,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
@@ -5852,7 +5828,7 @@
         <v>21.9086305127664</v>
       </c>
       <c r="F188">
-        <v>13</v>
+        <v>90.0306748466258</v>
       </c>
       <c r="G188">
         <v>44.59</v>
@@ -5860,10 +5836,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C189">
         <v>78.952711067095805</v>
@@ -5875,7 +5851,7 @@
         <v>7.0836667785321499</v>
       </c>
       <c r="F189">
-        <v>12</v>
+        <v>8.9536138079827392</v>
       </c>
       <c r="G189">
         <v>12.21</v>
@@ -5883,7 +5859,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s">
         <v>38</v>
@@ -5898,7 +5874,7 @@
         <v>9.2465926939251109</v>
       </c>
       <c r="F190">
-        <v>10</v>
+        <v>60.095365817314899</v>
       </c>
       <c r="G190">
         <v>21.82</v>
@@ -5906,7 +5882,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
@@ -5921,7 +5897,7 @@
         <v>24.702399436888001</v>
       </c>
       <c r="F191">
-        <v>7</v>
+        <v>67.0759156947002</v>
       </c>
       <c r="G191">
         <v>18.350000000000001</v>
@@ -5929,7 +5905,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B192" t="s">
         <v>34</v>
@@ -5944,7 +5920,7 @@
         <v>20.4035308953342</v>
       </c>
       <c r="F192">
-        <v>20</v>
+        <v>45.573561672917698</v>
       </c>
       <c r="G192">
         <v>34.909999999999997</v>
@@ -5952,10 +5928,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C193">
         <v>34.235525345999498</v>
@@ -5967,33 +5943,10 @@
         <v>11.939090292515401</v>
       </c>
       <c r="F193">
-        <v>43</v>
+        <v>7.4825281069583696</v>
       </c>
       <c r="G193">
         <v>7.22</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C194" s="1">
-        <v>68.531836290616098</v>
-      </c>
-      <c r="D194" s="1">
-        <v>55.793905975329402</v>
-      </c>
-      <c r="E194" s="1">
-        <v>7.1203030095506996</v>
-      </c>
-      <c r="F194" s="1">
-        <v>6</v>
-      </c>
-      <c r="G194" s="2">
-        <v>9.59</v>
       </c>
     </row>
   </sheetData>
